--- a/Design Phase/Gantt project planner.xlsx
+++ b/Design Phase/Gantt project planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C1224-F8E1-42F4-B2A0-4AFDF706AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F8D8E-73DE-4DA7-915A-7528EF397ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -201,7 +201,34 @@
     <t>Client, Server, Message, GUI, Panels</t>
   </si>
   <si>
-    <t>Implementation Phase</t>
+    <t>Implementation Phase (Discord)</t>
+  </si>
+  <si>
+    <t>11:00 ~ 12:00</t>
+  </si>
+  <si>
+    <t>6:00 ~ 8:00</t>
+  </si>
+  <si>
+    <t>Implementation Phase (inperson)</t>
+  </si>
+  <si>
+    <t>11:00 ~ 1:00</t>
+  </si>
+  <si>
+    <t>1:40 ~ 2:30</t>
+  </si>
+  <si>
+    <t>12:30 ~ 1:30</t>
+  </si>
+  <si>
+    <t>6:00 ~ 10:00</t>
+  </si>
+  <si>
+    <t>8:00 ~ 2:00</t>
+  </si>
+  <si>
+    <t>10:00 ~ 1:00</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1691,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:D45" totalsRowShown="0">
-  <autoFilter ref="A28:D45" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:D48" totalsRowShown="0">
+  <autoFilter ref="A28:D48" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6180F13D-FA85-403B-A6F5-A129737F43E0}" name="Meeting Notes"/>
     <tableColumn id="2" xr3:uid="{1B074AB1-8492-456A-8DB2-4E8637EEEFD3}" name="Meeting Days" dataDxfId="0"/>
@@ -1921,7 +1948,7 @@
   <dimension ref="A2:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,46 +2304,127 @@
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>120</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <v>120</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>240</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>360</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45783</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>180</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>

--- a/Design Phase/Gantt project planner.xlsx
+++ b/Design Phase/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C1224-F8E1-42F4-B2A0-4AFDF706AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0E5C1224-F8E1-42F4-B2A0-4AFDF706AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0C5694-1278-47F2-B081-216E44D08556}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Implementation Phase</t>
+  </si>
+  <si>
+    <t>server (in the start) , player , penals and testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1920,27 +1926,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="3" width="45.58203125" customWidth="1"/>
+    <col min="4" max="4" width="33.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2066,46 +2072,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2273,58 +2279,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2354,8 +2360,11 @@
       <c r="C53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2365,8 +2374,11 @@
       <c r="C54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>33</v>
       </c>

--- a/Design Phase/Gantt project planner.xlsx
+++ b/Design Phase/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F8D8E-73DE-4DA7-915A-7528EF397ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{736F8D8E-73DE-4DA7-915A-7528EF397ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5179FBA0-0785-41CB-ACA5-5FDBCFE2C446}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>10:00 ~ 1:00</t>
+  </si>
+  <si>
+    <t>server (in the start) , player , Penals, testing</t>
   </si>
 </sst>
 </file>
@@ -702,10 +705,7 @@
                   <c:v>45758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45772</c:v>
+                  <c:v>45783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,6 +781,9 @@
                 <c:pt idx="2">
                   <c:v>45740</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>45763</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -856,13 +859,7 @@
                   <c:v>45757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45778</c:v>
+                  <c:v>45783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,27 +1944,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="3" width="45.58203125" customWidth="1"/>
+    <col min="4" max="4" width="33.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2047,92 +2044,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>45758</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>45763</v>
+      </c>
       <c r="D6" s="1">
-        <v>45764</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>45783</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1310</v>
+      </c>
       <c r="F6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>45765</v>
+        <v>45783</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>45771</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
-        <v>45772</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>45778</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2160,7 +2155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2188,7 +2183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2202,7 +2197,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2216,7 +2211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2230,7 +2225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2272,7 +2267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2286,7 +2281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2300,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2342,7 +2337,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2370,7 +2365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2384,7 +2379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2398,7 +2393,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2412,7 +2407,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2426,13 +2421,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2462,8 +2457,11 @@
       <c r="C53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2485,7 +2483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2499,7 +2497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>33</v>
       </c>
